--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -17,156 +17,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="72">
-  <si>
-    <t>土地坐_落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段01620000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段01520000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段01490000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段00530001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段赤皮湖小段00620001地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段02880000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段03020000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段02900000地號</t>
+  </si>
+  <si>
+    <t>新北市新店區直潭段蘆竹濫小段00620003地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段一小段05840000地號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區憲德段二小段00260004地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之149</t>
+  </si>
+  <si>
+    <t>10000分之50</t>
+  </si>
+  <si>
+    <t>許陽明</t>
+  </si>
+  <si>
+    <t>管碧玲</t>
+  </si>
+  <si>
+    <t>60年09月16日</t>
+  </si>
+  <si>
+    <t>60年09月06日</t>
+  </si>
+  <si>
+    <t>60年C®月06日</t>
+  </si>
+  <si>
+    <t>88年08月10日</t>
+  </si>
+  <si>
+    <t>99年09月17日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>12500000(土地及建物共3筆合計）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-30</t>
+  </si>
+  <si>
+    <t>tmpb8981</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段一小段11567000建號</t>
+  </si>
+  <si>
+    <t>(超過五年（總面積））</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段（陽台）一小段11567000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區開明段一小段11599000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區憲德段二小段02239000建號</t>
+  </si>
+  <si>
+    <t>局雄市別鎮區憲德段■小段02353000建號</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
+  </si>
+  <si>
+    <t>(超過五年（陽台））</t>
+  </si>
+  <si>
+    <t>廠牌型.號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得）時間</t>
   </si>
   <si>
-    <t>登記（取得）原因.</t>
+    <t>登記（取得）原因</t>
   </si>
   <si>
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市新店區直潭段赤皮湖小 段0162-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0152-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0149-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0053-0001地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段赤皮湖小 段0062-0001地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0288-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0302-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0290-0000地號</t>
-  </si>
-  <si>
-    <t>新北市新店區直潭段蘆竹濫小 段0062-0003地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段 0584-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區憲德段二小段 0026-0004 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 149</t>
-  </si>
-  <si>
-    <t>10000分之 50</t>
-  </si>
-  <si>
-    <t>許陽明</t>
-  </si>
-  <si>
-    <t>管碧玲</t>
-  </si>
-  <si>
-    <t>60年09月 16日</t>
-  </si>
-  <si>
-    <t>60年09月 06日</t>
-  </si>
-  <si>
-    <t>60年C®月 06日</t>
-  </si>
-  <si>
-    <t>88年08月 10日</t>
-  </si>
-  <si>
-    <t>99年09月 17日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>受贈'</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>12，500，000(土 地及建物共3 筆合計）</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段11567-000建號</t>
-  </si>
-  <si>
-    <t>88年08月10日</t>
-  </si>
-  <si>
-    <t>(超過五年（總面積））</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段（陽台）一 小段11567-000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段 11599-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區憲德段二小段 02239-000 建號</t>
-  </si>
-  <si>
-    <t>局雄市別鎮區憲德段_■小段 02353-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 58</t>
-  </si>
-  <si>
-    <t>(超過五年（陽 台））</t>
-  </si>
-  <si>
-    <t>廠牌型.號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>LEXUS ES330</t>
-  </si>
-  <si>
-    <t>94年06月 23日</t>
+    <t>LEXUSES330</t>
+  </si>
+  <si>
+    <t>94年06月23日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -187,28 +220,28 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門分 行</t>
+    <t>合作金庫商業銀行西門分行</t>
   </si>
   <si>
     <t>高雄銀行市府分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行中正分 行</t>
+    <t>國泰世華商業銀行中正分行</t>
   </si>
   <si>
     <t>高雄市府郵局(第19支局)</t>
   </si>
   <si>
-    <t>合作金庫商業銀行十全分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行北投分 行</t>
+    <t>合作金庫商業銀行十全分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行北投分行</t>
   </si>
   <si>
     <t>陽信商業銀行大屯分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行長春分 行</t>
+    <t>合作金庫商業銀行長春分行</t>
   </si>
   <si>
     <t>臺灣銀行北投分行</t>
@@ -230,9 +263,6 @@
   </si>
   <si>
     <t>美金</t>
-  </si>
-  <si>
-    <t>管碧玲_</t>
   </si>
 </sst>
 </file>
@@ -591,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,291 +649,543 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>5301</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>873</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>2701</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1072</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1896</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1324</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>5456</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>485</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>2997</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>4878.79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="2">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -921,25 +1203,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1">
         <v>90.86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -947,25 +1229,25 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>11.63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -973,25 +1255,25 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>2570.08</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -999,25 +1281,25 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
         <v>175.59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1025,25 +1307,25 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>21696.77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1061,22 +1343,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1084,22 +1366,22 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1117,22 +1399,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1140,16 +1422,16 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1161,16 +1443,16 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1182,16 +1464,16 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1203,16 +1485,16 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1224,16 +1506,16 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1245,16 +1527,16 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1266,16 +1548,16 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1287,16 +1569,16 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1308,16 +1590,16 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1329,16 +1611,16 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1350,16 +1632,16 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2">
         <v>4009</v>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -61,7 +61,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市新店區直潭段赤皮湖小段01620000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>新北市新店區直潭段赤皮湖小段01520000地號</t>
@@ -112,9 +115,6 @@
     <t>管碧玲</t>
   </si>
   <si>
-    <t>60年09月16日</t>
-  </si>
-  <si>
     <t>60年09月06日</t>
   </si>
   <si>
@@ -154,15 +154,12 @@
     <t>tmpb8981</t>
   </si>
   <si>
-    <t>臺北市北投區開明段一小段11567000建號</t>
-  </si>
-  <si>
-    <t>(超過五年（總面積））</t>
-  </si>
-  <si>
     <t>臺北市北投區開明段（陽台）一小段11567000建號</t>
   </si>
   <si>
+    <t>(超過五年（陽台））</t>
+  </si>
+  <si>
     <t>臺北市北投區開明段一小段11599000建號</t>
   </si>
   <si>
@@ -175,51 +172,21 @@
     <t>10000分之58</t>
   </si>
   <si>
-    <t>(超過五年（陽台））</t>
-  </si>
-  <si>
-    <t>廠牌型.號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>LEXUSES330</t>
   </si>
   <si>
     <t>94年06月23日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行西門分行</t>
   </si>
   <si>
@@ -250,16 +217,10 @@
     <t>合作金庫商業銀行營業部</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>中華郵政存簿儲金</t>
   </si>
   <si>
     <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
   </si>
   <si>
     <t>美金</t>
@@ -621,13 +582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,25 +631,31 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>5301</v>
+        <v>873</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>36</v>
@@ -706,7 +673,7 @@
         <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>1374</v>
@@ -715,24 +682,30 @@
         <v>44</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>218.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>873</v>
+        <v>2701</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -753,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>1374</v>
@@ -762,24 +735,30 @@
         <v>44</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>675.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>2701</v>
+        <v>1072</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>32</v>
@@ -800,7 +779,7 @@
         <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>1374</v>
@@ -809,30 +788,36 @@
         <v>44</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1072</v>
+        <v>1896</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>39</v>
@@ -847,7 +832,7 @@
         <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>1374</v>
@@ -856,27 +841,33 @@
         <v>44</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1896</v>
+        <v>1324</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>37</v>
@@ -894,7 +885,7 @@
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>1374</v>
@@ -903,30 +894,36 @@
         <v>44</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1324</v>
+        <v>2250</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>39</v>
@@ -941,7 +938,7 @@
         <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>1374</v>
@@ -950,24 +947,30 @@
         <v>44</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>562.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2250</v>
+        <v>5456</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>32</v>
@@ -988,7 +991,7 @@
         <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>1374</v>
@@ -997,24 +1000,30 @@
         <v>44</v>
       </c>
       <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>5456</v>
+        <v>485</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>32</v>
@@ -1035,7 +1044,7 @@
         <v>43</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>1374</v>
@@ -1044,30 +1053,36 @@
         <v>44</v>
       </c>
       <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>121.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>485</v>
+        <v>2997</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>39</v>
@@ -1082,7 +1097,7 @@
         <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>1374</v>
@@ -1091,33 +1106,39 @@
         <v>44</v>
       </c>
       <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0149</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>44.6553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>2997</v>
+        <v>4878.79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -1129,7 +1150,7 @@
         <v>43</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>1374</v>
@@ -1138,54 +1159,13 @@
         <v>44</v>
       </c>
       <c r="O11" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4878.79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1374</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" s="2">
-        <v>23</v>
+      <c r="P11" s="2">
+        <v>0.005</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>24.39395</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,13 +1186,13 @@
         <v>45</v>
       </c>
       <c r="C1" s="1">
-        <v>90.86</v>
+        <v>11.63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>34</v>
@@ -1226,19 +1206,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>11.63</v>
+        <v>2570.08</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>34</v>
@@ -1247,18 +1227,18 @@
         <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>2570.08</v>
+        <v>175.59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>27</v>
@@ -1267,30 +1247,30 @@
         <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="2">
-        <v>175.59</v>
+        <v>21696.77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>35</v>
@@ -1299,32 +1279,6 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21696.77</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1335,7 +1289,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3311</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1352,301 +1339,222 @@
         <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>3273822</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3311</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>3273822</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>5384</v>
+        <v>1667936</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1667936</v>
+        <v>433548</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>433548</v>
+        <v>493008</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>493008</v>
+        <v>20310</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>20310</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1238</v>
+        <v>9792</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>9792</v>
+        <v>31205</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>31205</v>
+        <v>108527</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4009</v>
+      </c>
       <c r="G11" s="2">
-        <v>108527</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>91</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4009</v>
-      </c>
-      <c r="G12" s="2">
         <v>118465.95</v>
       </c>
     </row>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市新店區直潭段赤皮湖小段01620000地號</t>
+  </si>
+  <si>
     <t>新北市新店區直潭段赤皮湖小段01520000地號</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>管碧玲</t>
   </si>
   <si>
+    <t>60年09月16日</t>
+  </si>
+  <si>
     <t>60年09月06日</t>
   </si>
   <si>
@@ -157,19 +163,19 @@
     <t>臺北市北投區開明段（陽台）一小段11567000建號</t>
   </si>
   <si>
+    <t>臺北市北投區開明段一小段11599000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區憲德段二小段02239000建號</t>
+  </si>
+  <si>
+    <t>局雄市別鎮區憲德段■小段02353000建號</t>
+  </si>
+  <si>
+    <t>10000分之58</t>
+  </si>
+  <si>
     <t>(超過五年（陽台））</t>
-  </si>
-  <si>
-    <t>臺北市北投區開明段一小段11599000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區憲德段二小段02239000建號</t>
-  </si>
-  <si>
-    <t>局雄市別鎮區憲德段■小段02353000建號</t>
-  </si>
-  <si>
-    <t>10000分之58</t>
   </si>
   <si>
     <t>LEXUSES330</t>
@@ -582,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,440 +646,440 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>873</v>
+        <v>5301</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2">
         <v>1374</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>218.25</v>
+        <v>1325.25</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>2701</v>
+        <v>873</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2">
         <v>1374</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>0.25</v>
       </c>
       <c r="Q3" s="2">
-        <v>675.25</v>
+        <v>218.25</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1072</v>
+        <v>2701</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2">
         <v>1374</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
         <v>0.25</v>
       </c>
       <c r="Q4" s="2">
-        <v>268</v>
+        <v>675.25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1896</v>
+        <v>1072</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="2">
         <v>1374</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" s="2">
-        <v>1896</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1324</v>
+        <v>1896</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="2">
         <v>1374</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>331</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2250</v>
+        <v>1324</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2">
         <v>1374</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
         <v>0.25</v>
       </c>
       <c r="Q7" s="2">
-        <v>562.5</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>5456</v>
+        <v>2250</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M8" s="2">
         <v>1374</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
         <v>0.25</v>
       </c>
       <c r="Q8" s="2">
-        <v>1364</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>485</v>
+        <v>5456</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M9" s="2">
         <v>1374</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
         <v>0.25</v>
       </c>
       <c r="Q9" s="2">
-        <v>121.25</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2997</v>
+        <v>485</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
@@ -1085,86 +1091,139 @@
         <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M10" s="2">
         <v>1374</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0149</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>44.6553</v>
+        <v>121.25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>4878.79</v>
+        <v>2997</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M11" s="2">
         <v>1374</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="2">
+        <v>22</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0149</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>44.6553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4878.79</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="2">
+      <c r="K12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="2">
         <v>23</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P12" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q12" s="2">
         <v>24.39395</v>
       </c>
     </row>
@@ -1175,111 +1234,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1">
-        <v>11.63</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>2570.08</v>
+        <v>11.63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>175.59</v>
+        <v>2570.08</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0149</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>38.294192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="2">
+        <v>175.59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2">
+        <v>54</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>175.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
         <v>21696.77</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2">
+        <v>55</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0058</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>125.841266</v>
       </c>
     </row>
   </sheetData>
@@ -1289,40 +1509,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3311</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1332,14 +1519,70 @@
       <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C1" s="1">
+        <v>3311</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3311</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1348,213 +1591,234 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>5384</v>
+        <v>3273822</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1667936</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>433548</v>
+        <v>1667936</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>493008</v>
+        <v>433548</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>20310</v>
+        <v>493008</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1238</v>
+        <v>20310</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>9792</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>31205</v>
+        <v>9792</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>108527</v>
+        <v>31205</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>108527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>91</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="C12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="2">
         <v>4009</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="2">
         <v>118465.95</v>
       </c>
     </row>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>(超過五年（陽台））</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>LEXUSES330</t>
@@ -1509,38 +1512,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1">
-        <v>3311</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
@@ -1549,13 +1573,34 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1573,13 +1618,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1594,13 +1639,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1615,13 +1660,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1636,13 +1681,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1657,13 +1702,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1678,13 +1723,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1699,13 +1744,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1720,13 +1765,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1741,13 +1786,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1762,13 +1807,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1783,13 +1828,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1804,13 +1849,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
   <si>
     <t>name</t>
   </si>
@@ -178,6 +178,9 @@
     <t>(超過五年（陽台））</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>94年06月23日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -1319,7 +1325,7 @@
         <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>44</v>
@@ -1372,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>44</v>
@@ -1425,7 +1431,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>44</v>
@@ -1478,7 +1484,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>44</v>
@@ -1523,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1564,7 +1570,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
@@ -1573,7 +1579,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -1582,7 +1588,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -1618,13 +1624,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1639,13 +1645,13 @@
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1660,13 +1666,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1681,13 +1687,13 @@
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1702,13 +1708,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1723,13 +1729,13 @@
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1744,13 +1750,13 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1765,13 +1771,13 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1786,13 +1792,13 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1807,13 +1813,13 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1828,13 +1834,13 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1849,13 +1855,13 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -193,52 +193,64 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行西門分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中正分行</t>
+  </si>
+  <si>
+    <t>高雄市府郵局(第19支局)</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行十全分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行北投分行</t>
+  </si>
+  <si>
+    <t>陽信商業銀行大屯分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行長春分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行北投分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行營業部</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行西門分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中正分行</t>
-  </si>
-  <si>
-    <t>高雄市府郵局(第19支局)</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行十全分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行北投分行</t>
-  </si>
-  <si>
-    <t>陽信商業銀行大屯分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行長春分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行北投分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行營業部</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
 </sst>
 </file>
@@ -1616,13 +1628,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
@@ -1633,244 +1645,482 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>3273822</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>3273822</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>5384</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1667936</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>433548</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>493008</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>20310</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1238</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>9792</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>31205</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>108527</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="2">
-        <v>4009</v>
-      </c>
-      <c r="G12" s="2">
         <v>118465.95</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1374</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="2">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -169,7 +169,7 @@
     <t>高雄市前鎮區憲德段二小段02239000建號</t>
   </si>
   <si>
-    <t>局雄市別鎮區憲德段■小段02353000建號</t>
+    <t>局雄市別鎮區憲德段小段02353000建號</t>
   </si>
   <si>
     <t>10000分之58</t>

--- a/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
+++ b/legislator/property/output/normal/管碧玲_2013-12-30_財產申報表_tmpb8981.xlsx
@@ -11,13 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="債務" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +161,9 @@
     <t>tmpb8981</t>
   </si>
   <si>
+    <t>臺北市北投區開明段一小段11567000建號</t>
+  </si>
+  <si>
     <t>臺北市北投區開明段（陽台）一小段11567000建號</t>
   </si>
   <si>
@@ -169,12 +173,15 @@
     <t>高雄市前鎮區憲德段二小段02239000建號</t>
   </si>
   <si>
-    <t>局雄市別鎮區憲德段小段02353000建號</t>
+    <t>局雄市別鎮區憲德段二小段02353000建號</t>
   </si>
   <si>
     <t>10000分之58</t>
   </si>
   <si>
+    <t>(超過五年（總面積））</t>
+  </si>
+  <si>
     <t>(超過五年（陽台））</t>
   </si>
   <si>
@@ -251,6 +258,48 @@
   </si>
   <si>
     <t>deposit</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
+    <t>合作金庫西門支庫臺北市萬華區昆明街77號</t>
+  </si>
+  <si>
+    <t>高雄銀行三民分行高雄市三民區博愛一路287號</t>
+  </si>
+  <si>
+    <t>管東隆彰化縣員林鎮林森路245號15樓</t>
+  </si>
+  <si>
+    <t>吳麗珠臺北市大安區和平東路三段一巷54號2樓</t>
+  </si>
+  <si>
+    <t>88年09月17日</t>
+  </si>
+  <si>
+    <t>97年09月01日</t>
+  </si>
+  <si>
+    <t>97年09月16日</t>
+  </si>
+  <si>
+    <t>98年07月07日</t>
+  </si>
+  <si>
+    <t>購買房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1313,13 +1362,13 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>11.63</v>
+        <v>90.86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>28</v>
@@ -1334,10 +1383,10 @@
         <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>44</v>
@@ -1355,27 +1404,27 @@
         <v>46</v>
       </c>
       <c r="O2" s="2">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>11.63</v>
+        <v>90.86</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="2">
-        <v>2570.08</v>
+        <v>11.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1387,10 +1436,10 @@
         <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>44</v>
@@ -1408,42 +1457,42 @@
         <v>46</v>
       </c>
       <c r="O3" s="2">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0149</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>38.294192</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="2">
-        <v>175.59</v>
+        <v>2570.08</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>44</v>
@@ -1461,27 +1510,27 @@
         <v>46</v>
       </c>
       <c r="O4" s="2">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.0149</v>
       </c>
       <c r="Q4" s="2">
-        <v>175.59</v>
+        <v>38.294192</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="2">
-        <v>21696.77</v>
+        <v>175.59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -1496,7 +1545,7 @@
         <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>44</v>
@@ -1514,12 +1563,65 @@
         <v>46</v>
       </c>
       <c r="O5" s="2">
+        <v>31</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>175.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21696.77</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="2">
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="2">
+        <v>32</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.0058</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>125.841266</v>
       </c>
     </row>
@@ -1541,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1579,10 +1681,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2">
         <v>3311</v>
@@ -1591,7 +1693,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>40</v>
@@ -1600,7 +1702,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>44</v>
@@ -1618,7 +1720,7 @@
         <v>46</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1636,13 +1738,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1674,16 +1776,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -1692,7 +1794,7 @@
         <v>3273822</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>44</v>
@@ -1710,21 +1812,21 @@
         <v>46</v>
       </c>
       <c r="M2" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>32</v>
@@ -1733,7 +1835,7 @@
         <v>5384</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>44</v>
@@ -1751,21 +1853,21 @@
         <v>46</v>
       </c>
       <c r="M3" s="2">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
@@ -1774,7 +1876,7 @@
         <v>1667936</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>44</v>
@@ -1792,21 +1894,21 @@
         <v>46</v>
       </c>
       <c r="M4" s="2">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
@@ -1815,7 +1917,7 @@
         <v>433548</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>44</v>
@@ -1833,21 +1935,21 @@
         <v>46</v>
       </c>
       <c r="M5" s="2">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -1856,7 +1958,7 @@
         <v>493008</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>44</v>
@@ -1874,21 +1976,21 @@
         <v>46</v>
       </c>
       <c r="M6" s="2">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -1897,7 +1999,7 @@
         <v>20310</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>44</v>
@@ -1915,21 +2017,21 @@
         <v>46</v>
       </c>
       <c r="M7" s="2">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
@@ -1938,7 +2040,7 @@
         <v>1238</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>44</v>
@@ -1956,21 +2058,21 @@
         <v>46</v>
       </c>
       <c r="M8" s="2">
-        <v>87</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1979,7 +2081,7 @@
         <v>9792</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>44</v>
@@ -1997,21 +2099,21 @@
         <v>46</v>
       </c>
       <c r="M9" s="2">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -2020,7 +2122,7 @@
         <v>31205</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>44</v>
@@ -2038,21 +2140,21 @@
         <v>46</v>
       </c>
       <c r="M10" s="2">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -2061,7 +2163,7 @@
         <v>108527</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>44</v>
@@ -2079,21 +2181,21 @@
         <v>46</v>
       </c>
       <c r="M11" s="2">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -2102,7 +2204,7 @@
         <v>118465.95</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
@@ -2120,7 +2222,281 @@
         <v>46</v>
       </c>
       <c r="M12" s="2">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2">
+        <v>676261</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>111</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7411091</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>112</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>113</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2">
+        <v>700000</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>114</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1374</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
